--- a/サンプルアプリケーション/設計書/03_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10204_プロジェクト検索.xlsx
+++ b/サンプルアプリケーション/設計書/03_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10204_プロジェクト検索.xlsx
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="476">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -2070,37 +2070,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>業務仕様及びアーキテクチャを踏まえて、観点毎にテスト対象要否を見直すこと。</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンテン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヨウヒ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ミナオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テストが失敗するケースは、アーキチームまたはインフラチーム起因になるため対象外</t>
     <rPh sb="36" eb="39">
       <t>タイショウガイ</t>
@@ -2268,10 +2237,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設計書に、特別なファイルサイズ指定がある場合のみ実施する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6-11-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2321,10 +2286,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Serviceのクラス単体テストで、編集処理が確認できている場合、取引単体テストでこのバリデーションを全てテストする必要はない。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>8-4-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2443,10 +2404,6 @@
   </si>
   <si>
     <t>出力された正常時のログの内容</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログ出力に業務固有の要件が存在しない場合は、実施不要。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -12801,14 +12758,12 @@
       <c r="R8" s="27"/>
     </row>
     <row r="9" spans="1:18" ht="12" thickTop="1">
-      <c r="F9" s="25" t="s">
-        <v>202</v>
-      </c>
+      <c r="F9" s="25"/>
       <c r="G9" s="75"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1">
       <c r="A10" s="76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B10" s="77" t="s">
         <v>9</v>
@@ -12844,7 +12799,7 @@
         <v>2</v>
       </c>
       <c r="M10" s="81" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N10" s="80" t="s">
         <v>5</v>
@@ -12897,14 +12852,14 @@
         <v>43658</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q11" s="33"/>
       <c r="R11" s="101"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="102" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="160" t="s">
@@ -12915,10 +12870,10 @@
       <c r="F12" s="163"/>
       <c r="G12" s="164"/>
       <c r="H12" s="165" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I12" s="166" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J12" s="166"/>
       <c r="K12" s="166"/>
@@ -12932,7 +12887,7 @@
     </row>
     <row r="13" spans="1:18" s="32" customFormat="1" ht="56.25">
       <c r="A13" s="103" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" s="38"/>
       <c r="C13" s="104" t="s">
@@ -12967,14 +12922,14 @@
         <v>43658</v>
       </c>
       <c r="P13" s="110" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="113"/>
       <c r="R13" s="114"/>
     </row>
     <row r="14" spans="1:18" s="32" customFormat="1">
       <c r="A14" s="103" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="69"/>
@@ -13002,7 +12957,7 @@
     </row>
     <row r="15" spans="1:18" s="32" customFormat="1" ht="56.25">
       <c r="A15" s="103" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="69"/>
@@ -13030,13 +12985,13 @@
     </row>
     <row r="16" spans="1:18" s="32" customFormat="1" ht="67.5">
       <c r="A16" s="103" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="69"/>
       <c r="D16" s="40"/>
       <c r="E16" s="169" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F16" s="163"/>
       <c r="G16" s="164"/>
@@ -13058,7 +13013,7 @@
     </row>
     <row r="17" spans="1:18" s="32" customFormat="1">
       <c r="A17" s="82" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="83"/>
@@ -13086,7 +13041,7 @@
     </row>
     <row r="18" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A18" s="82" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="40"/>
@@ -13114,7 +13069,7 @@
     </row>
     <row r="19" spans="1:18" s="32" customFormat="1" ht="22.5" hidden="1">
       <c r="A19" s="115" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="40"/>
@@ -13122,16 +13077,16 @@
         <v>79</v>
       </c>
       <c r="E19" s="204" t="s">
+        <v>219</v>
+      </c>
+      <c r="F19" s="205" t="s">
         <v>220</v>
       </c>
-      <c r="F19" s="205" t="s">
+      <c r="G19" s="206" t="s">
+        <v>202</v>
+      </c>
+      <c r="H19" s="207" t="s">
         <v>221</v>
-      </c>
-      <c r="G19" s="206" t="s">
-        <v>203</v>
-      </c>
-      <c r="H19" s="207" t="s">
-        <v>222</v>
       </c>
       <c r="I19" s="208" t="s">
         <v>30</v>
@@ -13148,22 +13103,22 @@
     </row>
     <row r="20" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A20" s="116" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" s="37"/>
       <c r="C20" s="40"/>
       <c r="D20" s="215"/>
       <c r="E20" s="169" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F20" s="163" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G20" s="164" t="s">
         <v>196</v>
       </c>
       <c r="H20" s="216" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I20" s="217" t="s">
         <v>30</v>
@@ -13180,22 +13135,22 @@
     </row>
     <row r="21" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A21" s="115" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="40"/>
       <c r="D21" s="215"/>
       <c r="E21" s="223" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F21" s="224" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G21" s="225" t="s">
         <v>196</v>
       </c>
       <c r="H21" s="226" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I21" s="227" t="s">
         <v>30</v>
@@ -13212,22 +13167,22 @@
     </row>
     <row r="22" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A22" s="117" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="40"/>
       <c r="D22" s="215"/>
       <c r="E22" s="234" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F22" s="235" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G22" s="236" t="s">
         <v>196</v>
       </c>
       <c r="H22" s="237" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I22" s="238" t="s">
         <v>30</v>
@@ -13242,20 +13197,20 @@
       <c r="Q22" s="241"/>
       <c r="R22" s="244"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" ht="22.5">
       <c r="A23" s="118" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B23" s="37"/>
       <c r="C23" s="40"/>
-      <c r="D23" s="215"/>
+      <c r="D23" s="203" t="s">
+        <v>79</v>
+      </c>
       <c r="E23" s="245" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="235"/>
-      <c r="G23" s="236" t="s">
-        <v>197</v>
-      </c>
+      <c r="G23" s="236"/>
       <c r="H23" s="237" t="s">
         <v>76</v>
       </c>
@@ -13274,7 +13229,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="118" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B24" s="37"/>
       <c r="C24" s="83"/>
@@ -13283,9 +13238,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="235"/>
-      <c r="G24" s="236" t="s">
-        <v>196</v>
-      </c>
+      <c r="G24" s="236"/>
       <c r="H24" s="237" t="s">
         <v>76</v>
       </c>
@@ -13304,7 +13257,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="118" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" s="37"/>
       <c r="C25" s="83"/>
@@ -13313,9 +13266,7 @@
         <v>21</v>
       </c>
       <c r="F25" s="235"/>
-      <c r="G25" s="236" t="s">
-        <v>196</v>
-      </c>
+      <c r="G25" s="236"/>
       <c r="H25" s="237" t="s">
         <v>76</v>
       </c>
@@ -13334,7 +13285,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="118" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26" s="37"/>
       <c r="C26" s="83"/>
@@ -13343,9 +13294,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="235"/>
-      <c r="G26" s="236" t="s">
-        <v>196</v>
-      </c>
+      <c r="G26" s="236"/>
       <c r="H26" s="237" t="s">
         <v>76</v>
       </c>
@@ -13364,7 +13313,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="83"/>
@@ -13373,9 +13322,7 @@
         <v>18</v>
       </c>
       <c r="F27" s="235"/>
-      <c r="G27" s="236" t="s">
-        <v>196</v>
-      </c>
+      <c r="G27" s="236"/>
       <c r="H27" s="237" t="s">
         <v>76</v>
       </c>
@@ -13394,7 +13341,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="118" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="40"/>
@@ -13403,9 +13350,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="248"/>
-      <c r="G28" s="249" t="s">
-        <v>244</v>
-      </c>
+      <c r="G28" s="249"/>
       <c r="H28" s="250" t="s">
         <v>76</v>
       </c>
@@ -13424,7 +13369,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="119" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B29" s="37"/>
       <c r="C29" s="40"/>
@@ -13433,9 +13378,7 @@
         <v>29</v>
       </c>
       <c r="F29" s="258"/>
-      <c r="G29" s="259" t="s">
-        <v>196</v>
-      </c>
+      <c r="G29" s="259"/>
       <c r="H29" s="260" t="s">
         <v>76</v>
       </c>
@@ -13454,23 +13397,23 @@
     </row>
     <row r="30" spans="1:18" ht="22.5">
       <c r="A30" s="82" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B30" s="37"/>
       <c r="C30" s="40"/>
       <c r="D30" s="60" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F30" s="258"/>
       <c r="G30" s="259"/>
       <c r="H30" s="260" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I30" s="268" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J30" s="261"/>
       <c r="K30" s="261"/>
@@ -13484,15 +13427,15 @@
     </row>
     <row r="31" spans="1:18" s="32" customFormat="1" ht="50.25" customHeight="1">
       <c r="A31" s="82" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B31" s="38"/>
       <c r="C31" s="69"/>
       <c r="D31" s="269" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E31" s="270" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F31" s="258"/>
       <c r="G31" s="259"/>
@@ -13514,13 +13457,13 @@
     </row>
     <row r="32" spans="1:18" s="32" customFormat="1" ht="57" customHeight="1">
       <c r="A32" s="82" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B32" s="38"/>
       <c r="C32" s="69"/>
       <c r="D32" s="68"/>
       <c r="E32" s="270" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F32" s="258"/>
       <c r="G32" s="259"/>
@@ -13542,18 +13485,16 @@
     </row>
     <row r="33" spans="1:18" s="32" customFormat="1" ht="45">
       <c r="A33" s="82" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B33" s="38"/>
       <c r="C33" s="69"/>
       <c r="D33" s="68"/>
       <c r="E33" s="270" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F33" s="258"/>
-      <c r="G33" s="259" t="s">
-        <v>257</v>
-      </c>
+      <c r="G33" s="259"/>
       <c r="H33" s="271" t="s">
         <v>124</v>
       </c>
@@ -13572,18 +13513,16 @@
     </row>
     <row r="34" spans="1:18" s="32" customFormat="1" ht="50.25" customHeight="1">
       <c r="A34" s="82" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B34" s="38"/>
       <c r="C34" s="69"/>
       <c r="D34" s="68"/>
       <c r="E34" s="270" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F34" s="258"/>
-      <c r="G34" s="259" t="s">
-        <v>196</v>
-      </c>
+      <c r="G34" s="259"/>
       <c r="H34" s="271" t="s">
         <v>124</v>
       </c>
@@ -13602,18 +13541,16 @@
     </row>
     <row r="35" spans="1:18" ht="50.25" customHeight="1">
       <c r="A35" s="82" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B35" s="38"/>
       <c r="C35" s="69"/>
       <c r="D35" s="68"/>
       <c r="E35" s="270" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F35" s="258"/>
-      <c r="G35" s="259" t="s">
-        <v>196</v>
-      </c>
+      <c r="G35" s="259"/>
       <c r="H35" s="271" t="s">
         <v>124</v>
       </c>
@@ -13632,18 +13569,16 @@
     </row>
     <row r="36" spans="1:18" ht="50.25" customHeight="1">
       <c r="A36" s="82" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B36" s="38"/>
       <c r="C36" s="69"/>
       <c r="D36" s="68"/>
       <c r="E36" s="270" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F36" s="258"/>
-      <c r="G36" s="259" t="s">
-        <v>196</v>
-      </c>
+      <c r="G36" s="259"/>
       <c r="H36" s="271" t="s">
         <v>124</v>
       </c>
@@ -13662,21 +13597,21 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="82" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B37" s="38"/>
       <c r="C37" s="69"/>
       <c r="D37" s="68"/>
       <c r="E37" s="270" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F37" s="258"/>
       <c r="G37" s="259"/>
       <c r="H37" s="271" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I37" s="272" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J37" s="272"/>
       <c r="K37" s="272"/>
@@ -13690,21 +13625,21 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="82" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B38" s="38"/>
       <c r="C38" s="69"/>
       <c r="D38" s="68"/>
       <c r="E38" s="270" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F38" s="258"/>
       <c r="G38" s="259"/>
       <c r="H38" s="271" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I38" s="272" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J38" s="272"/>
       <c r="K38" s="272"/>
@@ -13718,21 +13653,21 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="82" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B39" s="38"/>
       <c r="C39" s="69"/>
       <c r="D39" s="70"/>
       <c r="E39" s="270" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F39" s="258"/>
       <c r="G39" s="259"/>
       <c r="H39" s="271" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I39" s="272" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J39" s="272"/>
       <c r="K39" s="272"/>
@@ -13746,15 +13681,15 @@
     </row>
     <row r="40" spans="1:18" ht="59.25" customHeight="1">
       <c r="A40" s="85" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B40" s="38"/>
       <c r="C40" s="69"/>
       <c r="D40" s="282" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E40" s="270" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F40" s="258"/>
       <c r="G40" s="259"/>
@@ -13776,18 +13711,16 @@
     </row>
     <row r="41" spans="1:18" ht="45">
       <c r="A41" s="85" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B41" s="38"/>
       <c r="C41" s="69"/>
       <c r="D41" s="68"/>
       <c r="E41" s="270" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F41" s="258"/>
-      <c r="G41" s="259" t="s">
-        <v>257</v>
-      </c>
+      <c r="G41" s="259"/>
       <c r="H41" s="271" t="s">
         <v>124</v>
       </c>
@@ -13806,18 +13739,16 @@
     </row>
     <row r="42" spans="1:18" ht="54.75" customHeight="1">
       <c r="A42" s="85" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B42" s="38"/>
       <c r="C42" s="69"/>
       <c r="D42" s="68"/>
       <c r="E42" s="270" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F42" s="258"/>
-      <c r="G42" s="259" t="s">
-        <v>196</v>
-      </c>
+      <c r="G42" s="259"/>
       <c r="H42" s="271" t="s">
         <v>124</v>
       </c>
@@ -13836,18 +13767,16 @@
     </row>
     <row r="43" spans="1:18" ht="54.75" customHeight="1">
       <c r="A43" s="85" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B43" s="38"/>
       <c r="C43" s="69"/>
       <c r="D43" s="68"/>
       <c r="E43" s="270" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F43" s="258"/>
-      <c r="G43" s="259" t="s">
-        <v>196</v>
-      </c>
+      <c r="G43" s="259"/>
       <c r="H43" s="271" t="s">
         <v>124</v>
       </c>
@@ -13866,21 +13795,21 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="85" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B44" s="38"/>
       <c r="C44" s="69"/>
       <c r="D44" s="68"/>
       <c r="E44" s="283" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F44" s="258"/>
       <c r="G44" s="259"/>
       <c r="H44" s="284" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I44" s="285" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J44" s="285"/>
       <c r="K44" s="285"/>
@@ -13894,7 +13823,7 @@
     </row>
     <row r="45" spans="1:18" ht="22.5">
       <c r="A45" s="85" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B45" s="86"/>
       <c r="C45" s="371" t="s">
@@ -13902,17 +13831,15 @@
       </c>
       <c r="D45" s="290"/>
       <c r="E45" s="290" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F45" s="291"/>
-      <c r="G45" s="292" t="s">
-        <v>288</v>
-      </c>
+      <c r="G45" s="292"/>
       <c r="H45" s="293" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I45" s="294" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J45" s="294"/>
       <c r="K45" s="294"/>
@@ -13926,23 +13853,21 @@
     </row>
     <row r="46" spans="1:18" ht="22.5">
       <c r="A46" s="85" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B46" s="86"/>
       <c r="C46" s="59"/>
       <c r="D46" s="68"/>
       <c r="E46" s="299" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F46" s="300"/>
-      <c r="G46" s="301" t="s">
-        <v>196</v>
-      </c>
+      <c r="G46" s="301"/>
       <c r="H46" s="302" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I46" s="303" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J46" s="303"/>
       <c r="K46" s="303"/>
@@ -13956,23 +13881,21 @@
     </row>
     <row r="47" spans="1:18" ht="22.5">
       <c r="A47" s="85" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B47" s="86"/>
       <c r="C47" s="59"/>
       <c r="D47" s="68"/>
       <c r="E47" s="308" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F47" s="309"/>
-      <c r="G47" s="310" t="s">
-        <v>196</v>
-      </c>
+      <c r="G47" s="310"/>
       <c r="H47" s="311" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I47" s="312" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J47" s="312"/>
       <c r="K47" s="312"/>
@@ -13986,23 +13909,21 @@
     </row>
     <row r="48" spans="1:18" ht="22.5">
       <c r="A48" s="85" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B48" s="86"/>
       <c r="C48" s="59"/>
       <c r="D48" s="68"/>
       <c r="E48" s="317" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F48" s="318"/>
-      <c r="G48" s="319" t="s">
-        <v>196</v>
-      </c>
+      <c r="G48" s="319"/>
       <c r="H48" s="320" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I48" s="321" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J48" s="321"/>
       <c r="K48" s="321"/>
@@ -14016,23 +13937,21 @@
     </row>
     <row r="49" spans="1:18" ht="33.75">
       <c r="A49" s="85" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B49" s="86"/>
       <c r="C49" s="59"/>
       <c r="D49" s="68"/>
       <c r="E49" s="326" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F49" s="327"/>
-      <c r="G49" s="328" t="s">
-        <v>196</v>
-      </c>
+      <c r="G49" s="328"/>
       <c r="H49" s="329" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I49" s="330" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J49" s="330"/>
       <c r="K49" s="330"/>
@@ -14046,23 +13965,21 @@
     </row>
     <row r="50" spans="1:18" ht="22.5">
       <c r="A50" s="85" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B50" s="86"/>
       <c r="C50" s="59"/>
       <c r="D50" s="68"/>
       <c r="E50" s="335" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F50" s="336"/>
-      <c r="G50" s="337" t="s">
-        <v>196</v>
-      </c>
+      <c r="G50" s="337"/>
       <c r="H50" s="338" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I50" s="339" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J50" s="339"/>
       <c r="K50" s="339"/>
@@ -14076,18 +13993,16 @@
     </row>
     <row r="51" spans="1:18" ht="22.5">
       <c r="A51" s="85" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B51" s="86"/>
       <c r="C51" s="59"/>
       <c r="D51" s="68"/>
       <c r="E51" s="344" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F51" s="345"/>
-      <c r="G51" s="346" t="s">
-        <v>196</v>
-      </c>
+      <c r="G51" s="346"/>
       <c r="H51" s="347" t="s">
         <v>128</v>
       </c>
@@ -14112,12 +14027,10 @@
       <c r="C52" s="59"/>
       <c r="D52" s="68"/>
       <c r="E52" s="353" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F52" s="354"/>
-      <c r="G52" s="355" t="s">
-        <v>196</v>
-      </c>
+      <c r="G52" s="355"/>
       <c r="H52" s="356" t="s">
         <v>128</v>
       </c>
@@ -14136,23 +14049,21 @@
     </row>
     <row r="53" spans="1:18" ht="22.5">
       <c r="A53" s="85" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B53" s="87"/>
       <c r="C53" s="372"/>
       <c r="D53" s="68"/>
       <c r="E53" s="362" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F53" s="363"/>
-      <c r="G53" s="364" t="s">
-        <v>196</v>
-      </c>
+      <c r="G53" s="364"/>
       <c r="H53" s="365" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I53" s="366" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J53" s="366"/>
       <c r="K53" s="366"/>
@@ -14166,7 +14077,7 @@
     </row>
     <row r="54" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A54" s="85" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B54" s="40" t="s">
         <v>35</v>
@@ -14175,10 +14086,10 @@
         <v>36</v>
       </c>
       <c r="D54" s="121" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E54" s="122" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F54" s="123"/>
       <c r="G54" s="124"/>
@@ -14203,14 +14114,14 @@
         <v>43658</v>
       </c>
       <c r="P54" s="50" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q54" s="49"/>
       <c r="R54" s="120"/>
     </row>
     <row r="55" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A55" s="85" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B55" s="40"/>
       <c r="C55" s="40"/>
@@ -14219,9 +14130,7 @@
         <v>39</v>
       </c>
       <c r="F55" s="354"/>
-      <c r="G55" s="355" t="s">
-        <v>317</v>
-      </c>
+      <c r="G55" s="355"/>
       <c r="H55" s="374" t="s">
         <v>37</v>
       </c>
@@ -14240,7 +14149,7 @@
     </row>
     <row r="56" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A56" s="85" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B56" s="40"/>
       <c r="C56" s="40"/>
@@ -14249,9 +14158,7 @@
         <v>40</v>
       </c>
       <c r="F56" s="354"/>
-      <c r="G56" s="355" t="s">
-        <v>196</v>
-      </c>
+      <c r="G56" s="355"/>
       <c r="H56" s="374" t="s">
         <v>37</v>
       </c>
@@ -14270,7 +14177,7 @@
     </row>
     <row r="57" spans="1:18" s="42" customFormat="1" ht="33.75">
       <c r="A57" s="85" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B57" s="40"/>
       <c r="C57" s="40"/>
@@ -14301,14 +14208,14 @@
         <v>43658</v>
       </c>
       <c r="P57" s="35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q57" s="33"/>
       <c r="R57" s="131"/>
     </row>
     <row r="58" spans="1:18" s="42" customFormat="1" ht="22.5">
       <c r="A58" s="85" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B58" s="40"/>
       <c r="C58" s="40"/>
@@ -14317,9 +14224,7 @@
         <v>42</v>
       </c>
       <c r="F58" s="354"/>
-      <c r="G58" s="355" t="s">
-        <v>317</v>
-      </c>
+      <c r="G58" s="355"/>
       <c r="H58" s="374" t="s">
         <v>37</v>
       </c>
@@ -14338,20 +14243,18 @@
     </row>
     <row r="59" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A59" s="85" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B59" s="40"/>
       <c r="C59" s="40"/>
       <c r="D59" s="132" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E59" s="376" t="s">
         <v>43</v>
       </c>
       <c r="F59" s="377"/>
-      <c r="G59" s="378" t="s">
-        <v>198</v>
-      </c>
+      <c r="G59" s="378"/>
       <c r="H59" s="379" t="s">
         <v>37</v>
       </c>
@@ -14370,7 +14273,7 @@
     </row>
     <row r="60" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A60" s="85" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B60" s="40"/>
       <c r="C60" s="40"/>
@@ -14379,9 +14282,7 @@
         <v>44</v>
       </c>
       <c r="F60" s="377"/>
-      <c r="G60" s="378" t="s">
-        <v>324</v>
-      </c>
+      <c r="G60" s="378"/>
       <c r="H60" s="379" t="s">
         <v>37</v>
       </c>
@@ -14400,7 +14301,7 @@
     </row>
     <row r="61" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="85" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B61" s="40"/>
       <c r="C61" s="40"/>
@@ -14431,14 +14332,14 @@
         <v>43658</v>
       </c>
       <c r="P61" s="35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q61" s="33"/>
       <c r="R61" s="134"/>
     </row>
     <row r="62" spans="1:18" s="32" customFormat="1">
       <c r="A62" s="85" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B62" s="40"/>
       <c r="C62" s="40"/>
@@ -14468,7 +14369,7 @@
     </row>
     <row r="63" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A63" s="85" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B63" s="40"/>
       <c r="C63" s="40"/>
@@ -14488,7 +14389,7 @@
         <v>169</v>
       </c>
       <c r="K63" s="133" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L63" s="36"/>
       <c r="M63" s="34"/>
@@ -14499,14 +14400,14 @@
         <v>43658</v>
       </c>
       <c r="P63" s="35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q63" s="33"/>
       <c r="R63" s="134"/>
     </row>
     <row r="64" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A64" s="85" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B64" s="40"/>
       <c r="C64" s="40"/>
@@ -14519,7 +14420,7 @@
       <c r="F64" s="123"/>
       <c r="G64" s="124"/>
       <c r="H64" s="125" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I64" s="125" t="s">
         <v>51</v>
@@ -14539,14 +14440,14 @@
         <v>43658</v>
       </c>
       <c r="P64" s="35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q64" s="33"/>
       <c r="R64" s="134"/>
     </row>
     <row r="65" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A65" s="85" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B65" s="40"/>
       <c r="C65" s="40"/>
@@ -14557,7 +14458,7 @@
       <c r="F65" s="123"/>
       <c r="G65" s="124"/>
       <c r="H65" s="125" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I65" s="125" t="s">
         <v>51</v>
@@ -14577,14 +14478,14 @@
         <v>43658</v>
       </c>
       <c r="P65" s="35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q65" s="33"/>
       <c r="R65" s="134"/>
     </row>
     <row r="66" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A66" s="85" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B66" s="40"/>
       <c r="C66" s="40"/>
@@ -14593,11 +14494,9 @@
         <v>136</v>
       </c>
       <c r="F66" s="377"/>
-      <c r="G66" s="378" t="s">
-        <v>199</v>
-      </c>
+      <c r="G66" s="378"/>
       <c r="H66" s="379" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I66" s="379" t="s">
         <v>51</v>
@@ -14614,7 +14513,7 @@
     </row>
     <row r="67" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A67" s="85" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B67" s="40"/>
       <c r="C67" s="40"/>
@@ -14623,13 +14522,13 @@
         <v>137</v>
       </c>
       <c r="F67" s="377" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G67" s="378" t="s">
         <v>200</v>
       </c>
       <c r="H67" s="379" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I67" s="379" t="s">
         <v>51</v>
@@ -14646,7 +14545,7 @@
     </row>
     <row r="68" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A68" s="85" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B68" s="40"/>
       <c r="C68" s="40"/>
@@ -14655,11 +14554,9 @@
         <v>97</v>
       </c>
       <c r="F68" s="377"/>
-      <c r="G68" s="378" t="s">
-        <v>334</v>
-      </c>
+      <c r="G68" s="378"/>
       <c r="H68" s="379" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I68" s="379" t="s">
         <v>51</v>
@@ -14676,20 +14573,18 @@
     </row>
     <row r="69" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A69" s="85" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B69" s="40"/>
       <c r="C69" s="40"/>
       <c r="D69" s="40"/>
       <c r="E69" s="380" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F69" s="377"/>
-      <c r="G69" s="378" t="s">
-        <v>196</v>
-      </c>
+      <c r="G69" s="378"/>
       <c r="H69" s="379" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I69" s="379" t="s">
         <v>51</v>
@@ -14706,7 +14601,7 @@
     </row>
     <row r="70" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A70" s="85" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B70" s="40"/>
       <c r="C70" s="40"/>
@@ -14715,11 +14610,9 @@
         <v>98</v>
       </c>
       <c r="F70" s="377"/>
-      <c r="G70" s="378" t="s">
-        <v>201</v>
-      </c>
+      <c r="G70" s="378"/>
       <c r="H70" s="379" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I70" s="379" t="s">
         <v>51</v>
@@ -14736,20 +14629,18 @@
     </row>
     <row r="71" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A71" s="85" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B71" s="40"/>
       <c r="C71" s="40"/>
       <c r="D71" s="41"/>
       <c r="E71" s="380" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F71" s="377"/>
-      <c r="G71" s="378" t="s">
-        <v>196</v>
-      </c>
+      <c r="G71" s="378"/>
       <c r="H71" s="379" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I71" s="379" t="s">
         <v>51</v>
@@ -14766,7 +14657,7 @@
     </row>
     <row r="72" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A72" s="85" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B72" s="40"/>
       <c r="C72" s="40"/>
@@ -14774,15 +14665,15 @@
         <v>134</v>
       </c>
       <c r="E72" s="133" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F72" s="123"/>
       <c r="G72" s="124"/>
       <c r="H72" s="125" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I72" s="39" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J72" s="133" t="s">
         <v>169</v>
@@ -14799,14 +14690,14 @@
         <v>43658</v>
       </c>
       <c r="P72" s="35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q72" s="33"/>
       <c r="R72" s="134"/>
     </row>
     <row r="73" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A73" s="85" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B73" s="40"/>
       <c r="C73" s="40"/>
@@ -14819,7 +14710,7 @@
       <c r="F73" s="377"/>
       <c r="G73" s="378"/>
       <c r="H73" s="379" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I73" s="382" t="s">
         <v>55</v>
@@ -14836,18 +14727,18 @@
     </row>
     <row r="74" spans="1:18" s="32" customFormat="1">
       <c r="A74" s="85" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B74" s="40"/>
       <c r="C74" s="40"/>
       <c r="D74" s="60"/>
       <c r="E74" s="380" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F74" s="377"/>
       <c r="G74" s="378"/>
       <c r="H74" s="379" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I74" s="382" t="s">
         <v>55</v>
@@ -14864,7 +14755,7 @@
     </row>
     <row r="75" spans="1:18" s="32" customFormat="1">
       <c r="A75" s="85" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B75" s="40"/>
       <c r="C75" s="40"/>
@@ -14875,7 +14766,7 @@
       <c r="F75" s="377"/>
       <c r="G75" s="378"/>
       <c r="H75" s="379" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I75" s="382" t="s">
         <v>55</v>
@@ -14892,7 +14783,7 @@
     </row>
     <row r="76" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A76" s="85" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B76" s="40"/>
       <c r="C76" s="40"/>
@@ -14905,7 +14796,7 @@
       <c r="F76" s="123"/>
       <c r="G76" s="124"/>
       <c r="H76" s="125" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I76" s="135" t="s">
         <v>55</v>
@@ -14925,14 +14816,14 @@
         <v>43658</v>
       </c>
       <c r="P76" s="35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q76" s="33"/>
       <c r="R76" s="134"/>
     </row>
     <row r="77" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A77" s="85" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B77" s="40"/>
       <c r="C77" s="40"/>
@@ -14943,7 +14834,7 @@
       <c r="F77" s="123"/>
       <c r="G77" s="124"/>
       <c r="H77" s="125" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I77" s="135" t="s">
         <v>55</v>
@@ -14963,14 +14854,14 @@
         <v>43658</v>
       </c>
       <c r="P77" s="35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q77" s="33"/>
       <c r="R77" s="134"/>
     </row>
     <row r="78" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A78" s="85" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B78" s="40"/>
       <c r="C78" s="40"/>
@@ -14981,7 +14872,7 @@
       <c r="F78" s="123"/>
       <c r="G78" s="124"/>
       <c r="H78" s="125" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I78" s="135" t="s">
         <v>55</v>
@@ -15001,14 +14892,14 @@
         <v>43658</v>
       </c>
       <c r="P78" s="35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q78" s="33"/>
       <c r="R78" s="134"/>
     </row>
     <row r="79" spans="1:18" s="32" customFormat="1">
       <c r="A79" s="85" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B79" s="40"/>
       <c r="C79" s="40"/>
@@ -15019,7 +14910,7 @@
       <c r="F79" s="384"/>
       <c r="G79" s="385"/>
       <c r="H79" s="386" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I79" s="387" t="s">
         <v>55</v>
@@ -15048,7 +14939,7 @@
         <v>195</v>
       </c>
       <c r="G80" s="393" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H80" s="394" t="s">
         <v>34</v>
@@ -15081,7 +14972,7 @@
       <c r="F81" s="141"/>
       <c r="G81" s="142"/>
       <c r="H81" s="137" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I81" s="137" t="s">
         <v>62</v>
@@ -15101,14 +14992,14 @@
         <v>43658</v>
       </c>
       <c r="P81" s="146" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q81" s="145"/>
       <c r="R81" s="147"/>
     </row>
     <row r="82" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A82" s="85" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B82" s="40"/>
       <c r="C82" s="40"/>
@@ -15121,7 +15012,7 @@
       <c r="F82" s="141"/>
       <c r="G82" s="142"/>
       <c r="H82" s="137" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I82" s="137" t="s">
         <v>62</v>
@@ -15141,25 +15032,25 @@
         <v>43658</v>
       </c>
       <c r="P82" s="146" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q82" s="145"/>
       <c r="R82" s="147"/>
     </row>
     <row r="83" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A83" s="85" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B83" s="40"/>
       <c r="C83" s="40"/>
       <c r="D83" s="148"/>
       <c r="E83" s="149" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F83" s="141"/>
       <c r="G83" s="142"/>
       <c r="H83" s="137" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I83" s="137" t="s">
         <v>62</v>
@@ -15179,14 +15070,14 @@
         <v>43658</v>
       </c>
       <c r="P83" s="146" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q83" s="145"/>
       <c r="R83" s="147"/>
     </row>
     <row r="84" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A84" s="85" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B84" s="40"/>
       <c r="C84" s="40"/>
@@ -15197,7 +15088,7 @@
       <c r="F84" s="141"/>
       <c r="G84" s="142"/>
       <c r="H84" s="137" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I84" s="137" t="s">
         <v>62</v>
@@ -15217,14 +15108,14 @@
         <v>43658</v>
       </c>
       <c r="P84" s="146" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q84" s="145"/>
       <c r="R84" s="147"/>
     </row>
     <row r="85" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A85" s="85" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B85" s="40"/>
       <c r="C85" s="40"/>
@@ -15235,7 +15126,7 @@
       <c r="F85" s="141"/>
       <c r="G85" s="142"/>
       <c r="H85" s="137" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I85" s="137" t="s">
         <v>62</v>
@@ -15255,14 +15146,14 @@
         <v>43658</v>
       </c>
       <c r="P85" s="146" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q85" s="145"/>
       <c r="R85" s="147"/>
     </row>
     <row r="86" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A86" s="85" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B86" s="40"/>
       <c r="C86" s="40"/>
@@ -15273,7 +15164,7 @@
       <c r="F86" s="141"/>
       <c r="G86" s="142"/>
       <c r="H86" s="137" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I86" s="137" t="s">
         <v>62</v>
@@ -15293,29 +15184,29 @@
         <v>43658</v>
       </c>
       <c r="P86" s="146" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q86" s="145"/>
       <c r="R86" s="147"/>
     </row>
     <row r="87" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A87" s="85" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B87" s="40"/>
       <c r="C87" s="40"/>
       <c r="D87" s="398" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E87" s="399"/>
       <c r="F87" s="400" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G87" s="401" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H87" s="395" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I87" s="395" t="s">
         <v>62</v>
@@ -15332,7 +15223,7 @@
     </row>
     <row r="88" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A88" s="85" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B88" s="40"/>
       <c r="C88" s="40"/>
@@ -15341,13 +15232,13 @@
       </c>
       <c r="E88" s="399"/>
       <c r="F88" s="400" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G88" s="401" t="s">
         <v>196</v>
       </c>
       <c r="H88" s="395" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I88" s="395" t="s">
         <v>62</v>
@@ -15364,7 +15255,7 @@
     </row>
     <row r="89" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A89" s="85" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B89" s="40"/>
       <c r="C89" s="40"/>
@@ -15373,13 +15264,13 @@
       </c>
       <c r="E89" s="399"/>
       <c r="F89" s="400" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G89" s="401" t="s">
         <v>196</v>
       </c>
       <c r="H89" s="395" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I89" s="395" t="s">
         <v>62</v>
@@ -15396,7 +15287,7 @@
     </row>
     <row r="90" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A90" s="85" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B90" s="40"/>
       <c r="C90" s="40"/>
@@ -15405,13 +15296,13 @@
       </c>
       <c r="E90" s="399"/>
       <c r="F90" s="400" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G90" s="401" t="s">
         <v>196</v>
       </c>
       <c r="H90" s="395" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I90" s="395" t="s">
         <v>62</v>
@@ -15428,7 +15319,7 @@
     </row>
     <row r="91" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A91" s="85" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B91" s="40"/>
       <c r="C91" s="40"/>
@@ -15437,13 +15328,13 @@
       </c>
       <c r="E91" s="399"/>
       <c r="F91" s="400" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G91" s="401" t="s">
         <v>196</v>
       </c>
       <c r="H91" s="395" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I91" s="395" t="s">
         <v>62</v>
@@ -15460,7 +15351,7 @@
     </row>
     <row r="92" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A92" s="85" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B92" s="40"/>
       <c r="C92" s="40"/>
@@ -15471,7 +15362,7 @@
       <c r="F92" s="141"/>
       <c r="G92" s="142"/>
       <c r="H92" s="137" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I92" s="137" t="s">
         <v>62</v>
@@ -15491,14 +15382,14 @@
         <v>43658</v>
       </c>
       <c r="P92" s="146" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q92" s="145"/>
       <c r="R92" s="147"/>
     </row>
     <row r="93" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A93" s="85" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B93" s="40"/>
       <c r="C93" s="40"/>
@@ -15509,7 +15400,7 @@
       <c r="F93" s="400"/>
       <c r="G93" s="401"/>
       <c r="H93" s="395" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I93" s="395" t="s">
         <v>62</v>
@@ -15526,7 +15417,7 @@
     </row>
     <row r="94" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A94" s="85" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B94" s="40"/>
       <c r="C94" s="40"/>
@@ -15537,7 +15428,7 @@
       <c r="F94" s="400"/>
       <c r="G94" s="401"/>
       <c r="H94" s="395" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I94" s="395" t="s">
         <v>62</v>
@@ -15554,7 +15445,7 @@
     </row>
     <row r="95" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="85" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B95" s="40"/>
       <c r="C95" s="40"/>
@@ -15565,7 +15456,7 @@
       <c r="F95" s="141"/>
       <c r="G95" s="142"/>
       <c r="H95" s="151" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I95" s="151" t="s">
         <v>62</v>
@@ -15585,14 +15476,14 @@
         <v>43658</v>
       </c>
       <c r="P95" s="35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q95" s="33"/>
       <c r="R95" s="147"/>
     </row>
     <row r="96" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A96" s="85" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B96" s="40"/>
       <c r="C96" s="40"/>
@@ -15603,7 +15494,7 @@
       <c r="F96" s="400"/>
       <c r="G96" s="401"/>
       <c r="H96" s="395" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I96" s="395" t="s">
         <v>62</v>
@@ -15620,7 +15511,7 @@
     </row>
     <row r="97" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A97" s="85" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B97" s="40"/>
       <c r="C97" s="40"/>
@@ -15629,13 +15520,13 @@
       </c>
       <c r="E97" s="399"/>
       <c r="F97" s="400" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G97" s="401" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H97" s="408" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I97" s="408" t="s">
         <v>62</v>
@@ -15652,18 +15543,18 @@
     </row>
     <row r="98" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A98" s="85" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B98" s="40"/>
       <c r="C98" s="40"/>
       <c r="D98" s="71" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E98" s="410"/>
       <c r="F98" s="400"/>
       <c r="G98" s="401"/>
       <c r="H98" s="395" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I98" s="395" t="s">
         <v>62</v>
@@ -15680,18 +15571,18 @@
     </row>
     <row r="99" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A99" s="85" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B99" s="40"/>
       <c r="C99" s="40"/>
       <c r="D99" s="71" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E99" s="410"/>
       <c r="F99" s="400"/>
       <c r="G99" s="401"/>
       <c r="H99" s="395" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I99" s="395" t="s">
         <v>62</v>
@@ -15708,7 +15599,7 @@
     </row>
     <row r="100" spans="1:18" s="32" customFormat="1" ht="45" customHeight="1">
       <c r="A100" s="153" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B100" s="40"/>
       <c r="C100" s="40"/>
@@ -15719,7 +15610,7 @@
       <c r="F100" s="392"/>
       <c r="G100" s="393"/>
       <c r="H100" s="413" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I100" s="413" t="s">
         <v>62</v>
@@ -15736,22 +15627,22 @@
     </row>
     <row r="101" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A101" s="90" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B101" s="40"/>
       <c r="C101" s="40"/>
       <c r="D101" s="71" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E101" s="410"/>
       <c r="F101" s="392" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G101" s="393" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H101" s="60" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I101" s="60" t="s">
         <v>62</v>
@@ -15768,7 +15659,7 @@
     </row>
     <row r="102" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A102" s="153" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B102" s="72"/>
       <c r="C102" s="72"/>
@@ -15777,16 +15668,16 @@
       </c>
       <c r="E102" s="412"/>
       <c r="F102" s="392" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G102" s="393" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H102" s="413" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I102" s="413" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J102" s="414"/>
       <c r="K102" s="414"/>
@@ -16014,7 +15905,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -16077,14 +15968,12 @@
       <c r="R8" s="27"/>
     </row>
     <row r="9" spans="1:18" ht="12" thickTop="1">
-      <c r="F9" s="25" t="s">
-        <v>202</v>
-      </c>
+      <c r="F9" s="25"/>
       <c r="G9" s="75"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1">
       <c r="A10" s="428" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B10" s="429" t="s">
         <v>9</v>
@@ -16120,7 +16009,7 @@
         <v>2</v>
       </c>
       <c r="M10" s="435" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="N10" s="434" t="s">
         <v>5</v>
@@ -16180,7 +16069,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="445" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="160" t="s">
@@ -16191,10 +16080,10 @@
       <c r="F12" s="498"/>
       <c r="G12" s="499"/>
       <c r="H12" s="500" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I12" s="501" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J12" s="501"/>
       <c r="K12" s="501"/>
@@ -16208,7 +16097,7 @@
     </row>
     <row r="13" spans="1:18" s="32" customFormat="1" ht="56.25">
       <c r="A13" s="446" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" s="38"/>
       <c r="C13" s="503" t="s">
@@ -16240,7 +16129,7 @@
     </row>
     <row r="14" spans="1:18" s="32" customFormat="1">
       <c r="A14" s="446" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="59"/>
@@ -16268,7 +16157,7 @@
     </row>
     <row r="15" spans="1:18" s="32" customFormat="1" ht="56.25">
       <c r="A15" s="446" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="59"/>
@@ -16296,13 +16185,13 @@
     </row>
     <row r="16" spans="1:18" s="32" customFormat="1" ht="67.5">
       <c r="A16" s="446" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="59"/>
       <c r="D16" s="60"/>
       <c r="E16" s="515" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F16" s="505"/>
       <c r="G16" s="506"/>
@@ -16324,7 +16213,7 @@
     </row>
     <row r="17" spans="1:18" s="32" customFormat="1">
       <c r="A17" s="82" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="66"/>
@@ -16352,7 +16241,7 @@
     </row>
     <row r="18" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A18" s="82" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="60"/>
@@ -16380,7 +16269,7 @@
     </row>
     <row r="19" spans="1:18" s="32" customFormat="1" ht="22.5" hidden="1">
       <c r="A19" s="447" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="60"/>
@@ -16388,13 +16277,13 @@
         <v>79</v>
       </c>
       <c r="E19" s="537" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F19" s="524" t="s">
         <v>195</v>
       </c>
       <c r="G19" s="525" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H19" s="526" t="s">
         <v>128</v>
@@ -16414,13 +16303,13 @@
     </row>
     <row r="20" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A20" s="447" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B20" s="37"/>
       <c r="C20" s="60"/>
       <c r="D20" s="215"/>
       <c r="E20" s="537" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F20" s="524" t="s">
         <v>195</v>
@@ -16446,13 +16335,13 @@
     </row>
     <row r="21" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A21" s="447" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="60"/>
       <c r="D21" s="215"/>
       <c r="E21" s="537" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F21" s="524" t="s">
         <v>195</v>
@@ -16478,13 +16367,13 @@
     </row>
     <row r="22" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A22" s="447" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="60"/>
       <c r="D22" s="215"/>
       <c r="E22" s="537" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F22" s="524" t="s">
         <v>195</v>
@@ -16508,13 +16397,15 @@
       <c r="Q22" s="530"/>
       <c r="R22" s="533"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" ht="22.5">
       <c r="A23" s="447" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B23" s="37"/>
       <c r="C23" s="60"/>
-      <c r="D23" s="215"/>
+      <c r="D23" s="536" t="s">
+        <v>79</v>
+      </c>
       <c r="E23" s="538" t="s">
         <v>19</v>
       </c>
@@ -16540,7 +16431,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="447" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B24" s="37"/>
       <c r="C24" s="66"/>
@@ -16570,7 +16461,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="447" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" s="37"/>
       <c r="C25" s="66"/>
@@ -16600,7 +16491,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="447" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26" s="37"/>
       <c r="C26" s="66"/>
@@ -16630,7 +16521,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="447" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="66"/>
@@ -16660,7 +16551,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="447" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="60"/>
@@ -16670,7 +16561,7 @@
       </c>
       <c r="F28" s="524"/>
       <c r="G28" s="525" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H28" s="526" t="s">
         <v>76</v>
@@ -16690,7 +16581,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="447" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B29" s="37"/>
       <c r="C29" s="60"/>
@@ -16720,23 +16611,23 @@
     </row>
     <row r="30" spans="1:18" ht="22.5">
       <c r="A30" s="82" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B30" s="37"/>
       <c r="C30" s="60"/>
       <c r="D30" s="60" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F30" s="505"/>
       <c r="G30" s="506"/>
       <c r="H30" s="539" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I30" s="547" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J30" s="540"/>
       <c r="K30" s="540"/>
@@ -16750,15 +16641,15 @@
     </row>
     <row r="31" spans="1:18" s="32" customFormat="1" ht="50.25" customHeight="1">
       <c r="A31" s="82" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B31" s="38"/>
       <c r="C31" s="59"/>
       <c r="D31" s="548" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E31" s="549" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F31" s="505"/>
       <c r="G31" s="506"/>
@@ -16780,13 +16671,13 @@
     </row>
     <row r="32" spans="1:18" s="32" customFormat="1" ht="57" customHeight="1">
       <c r="A32" s="82" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B32" s="38"/>
       <c r="C32" s="59"/>
       <c r="D32" s="68"/>
       <c r="E32" s="549" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F32" s="505"/>
       <c r="G32" s="506"/>
@@ -16808,17 +16699,17 @@
     </row>
     <row r="33" spans="1:18" s="32" customFormat="1" ht="45">
       <c r="A33" s="82" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B33" s="38"/>
       <c r="C33" s="59"/>
       <c r="D33" s="68"/>
       <c r="E33" s="549" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F33" s="505"/>
       <c r="G33" s="506" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H33" s="550" t="s">
         <v>124</v>
@@ -16838,13 +16729,13 @@
     </row>
     <row r="34" spans="1:18" s="32" customFormat="1" ht="50.25" customHeight="1">
       <c r="A34" s="82" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B34" s="38"/>
       <c r="C34" s="59"/>
       <c r="D34" s="68"/>
       <c r="E34" s="549" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F34" s="505"/>
       <c r="G34" s="506" t="s">
@@ -16868,13 +16759,13 @@
     </row>
     <row r="35" spans="1:18" ht="50.25" customHeight="1">
       <c r="A35" s="82" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B35" s="38"/>
       <c r="C35" s="59"/>
       <c r="D35" s="68"/>
       <c r="E35" s="549" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F35" s="505"/>
       <c r="G35" s="506" t="s">
@@ -16898,13 +16789,13 @@
     </row>
     <row r="36" spans="1:18" ht="50.25" customHeight="1">
       <c r="A36" s="82" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B36" s="38"/>
       <c r="C36" s="59"/>
       <c r="D36" s="68"/>
       <c r="E36" s="549" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F36" s="505"/>
       <c r="G36" s="506" t="s">
@@ -16928,21 +16819,21 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="82" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B37" s="38"/>
       <c r="C37" s="59"/>
       <c r="D37" s="68"/>
       <c r="E37" s="549" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F37" s="505"/>
       <c r="G37" s="506"/>
       <c r="H37" s="550" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I37" s="551" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J37" s="551"/>
       <c r="K37" s="551"/>
@@ -16956,21 +16847,21 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="82" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B38" s="38"/>
       <c r="C38" s="59"/>
       <c r="D38" s="68"/>
       <c r="E38" s="549" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F38" s="505"/>
       <c r="G38" s="506"/>
       <c r="H38" s="550" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I38" s="551" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J38" s="551"/>
       <c r="K38" s="551"/>
@@ -16984,21 +16875,21 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="82" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B39" s="38"/>
       <c r="C39" s="59"/>
       <c r="D39" s="70"/>
       <c r="E39" s="549" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F39" s="505"/>
       <c r="G39" s="506"/>
       <c r="H39" s="550" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I39" s="551" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J39" s="551"/>
       <c r="K39" s="551"/>
@@ -17012,15 +16903,15 @@
     </row>
     <row r="40" spans="1:18" ht="59.25" customHeight="1">
       <c r="A40" s="85" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B40" s="38"/>
       <c r="C40" s="59"/>
       <c r="D40" s="555" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E40" s="549" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F40" s="505"/>
       <c r="G40" s="506"/>
@@ -17042,17 +16933,17 @@
     </row>
     <row r="41" spans="1:18" ht="45">
       <c r="A41" s="85" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B41" s="38"/>
       <c r="C41" s="59"/>
       <c r="D41" s="68"/>
       <c r="E41" s="549" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F41" s="505"/>
       <c r="G41" s="506" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H41" s="550" t="s">
         <v>124</v>
@@ -17072,13 +16963,13 @@
     </row>
     <row r="42" spans="1:18" ht="54.75" customHeight="1">
       <c r="A42" s="85" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B42" s="38"/>
       <c r="C42" s="59"/>
       <c r="D42" s="68"/>
       <c r="E42" s="549" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F42" s="505"/>
       <c r="G42" s="506" t="s">
@@ -17102,13 +16993,13 @@
     </row>
     <row r="43" spans="1:18" ht="54.75" customHeight="1">
       <c r="A43" s="85" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B43" s="38"/>
       <c r="C43" s="59"/>
       <c r="D43" s="68"/>
       <c r="E43" s="549" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F43" s="505"/>
       <c r="G43" s="506" t="s">
@@ -17132,21 +17023,21 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="85" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B44" s="38"/>
       <c r="C44" s="59"/>
       <c r="D44" s="68"/>
       <c r="E44" s="556" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F44" s="505"/>
       <c r="G44" s="506"/>
       <c r="H44" s="557" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I44" s="558" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="J44" s="558"/>
       <c r="K44" s="558"/>
@@ -17160,7 +17051,7 @@
     </row>
     <row r="45" spans="1:18" ht="22.5">
       <c r="A45" s="85" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B45" s="86"/>
       <c r="C45" s="563" t="s">
@@ -17168,17 +17059,17 @@
       </c>
       <c r="D45" s="564"/>
       <c r="E45" s="564" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F45" s="565"/>
       <c r="G45" s="566" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H45" s="567" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I45" s="568" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="J45" s="568"/>
       <c r="K45" s="568"/>
@@ -17192,23 +17083,23 @@
     </row>
     <row r="46" spans="1:18" ht="22.5">
       <c r="A46" s="85" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B46" s="86"/>
       <c r="C46" s="59"/>
       <c r="D46" s="68"/>
       <c r="E46" s="573" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F46" s="574"/>
       <c r="G46" s="575" t="s">
         <v>196</v>
       </c>
       <c r="H46" s="576" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I46" s="577" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="J46" s="577"/>
       <c r="K46" s="577"/>
@@ -17222,13 +17113,13 @@
     </row>
     <row r="47" spans="1:18" ht="22.5">
       <c r="A47" s="85" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B47" s="86"/>
       <c r="C47" s="59"/>
       <c r="D47" s="68"/>
       <c r="E47" s="582" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F47" s="583"/>
       <c r="G47" s="584" t="s">
@@ -17252,13 +17143,13 @@
     </row>
     <row r="48" spans="1:18" ht="22.5">
       <c r="A48" s="85" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B48" s="86"/>
       <c r="C48" s="59"/>
       <c r="D48" s="68"/>
       <c r="E48" s="591" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F48" s="592"/>
       <c r="G48" s="593" t="s">
@@ -17282,23 +17173,23 @@
     </row>
     <row r="49" spans="1:18" ht="33.75">
       <c r="A49" s="85" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B49" s="86"/>
       <c r="C49" s="59"/>
       <c r="D49" s="68"/>
       <c r="E49" s="600" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F49" s="601"/>
       <c r="G49" s="602" t="s">
         <v>196</v>
       </c>
       <c r="H49" s="603" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I49" s="604" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J49" s="604"/>
       <c r="K49" s="604"/>
@@ -17312,23 +17203,23 @@
     </row>
     <row r="50" spans="1:18" ht="22.5">
       <c r="A50" s="85" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B50" s="86"/>
       <c r="C50" s="59"/>
       <c r="D50" s="68"/>
       <c r="E50" s="609" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F50" s="610"/>
       <c r="G50" s="611" t="s">
         <v>196</v>
       </c>
       <c r="H50" s="612" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I50" s="613" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J50" s="613"/>
       <c r="K50" s="613"/>
@@ -17342,23 +17233,23 @@
     </row>
     <row r="51" spans="1:18" ht="22.5">
       <c r="A51" s="85" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B51" s="86"/>
       <c r="C51" s="59"/>
       <c r="D51" s="68"/>
       <c r="E51" s="618" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F51" s="619"/>
       <c r="G51" s="620" t="s">
         <v>196</v>
       </c>
       <c r="H51" s="621" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I51" s="622" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J51" s="622"/>
       <c r="K51" s="622"/>
@@ -17372,23 +17263,23 @@
     </row>
     <row r="52" spans="1:18" ht="22.5">
       <c r="A52" s="85" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B52" s="86"/>
       <c r="C52" s="59"/>
       <c r="D52" s="68"/>
       <c r="E52" s="627" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F52" s="628"/>
       <c r="G52" s="629" t="s">
         <v>196</v>
       </c>
       <c r="H52" s="630" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I52" s="631" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J52" s="631"/>
       <c r="K52" s="631"/>
@@ -17402,13 +17293,13 @@
     </row>
     <row r="53" spans="1:18" ht="22.5">
       <c r="A53" s="85" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B53" s="87"/>
       <c r="C53" s="372"/>
       <c r="D53" s="68"/>
       <c r="E53" s="636" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F53" s="637"/>
       <c r="G53" s="638" t="s">
@@ -17441,10 +17332,10 @@
         <v>36</v>
       </c>
       <c r="D54" s="448" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E54" s="449" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F54" s="450"/>
       <c r="G54" s="451"/>
@@ -17469,14 +17360,14 @@
         <v>43658</v>
       </c>
       <c r="P54" s="50" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q54" s="49"/>
       <c r="R54" s="453"/>
     </row>
     <row r="55" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A55" s="85" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B55" s="40"/>
       <c r="C55" s="40"/>
@@ -17486,7 +17377,7 @@
       </c>
       <c r="F55" s="637"/>
       <c r="G55" s="638" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H55" s="646" t="s">
         <v>37</v>
@@ -17506,7 +17397,7 @@
     </row>
     <row r="56" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A56" s="85" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B56" s="40"/>
       <c r="C56" s="40"/>
@@ -17536,7 +17427,7 @@
     </row>
     <row r="57" spans="1:18" s="42" customFormat="1" ht="33.75">
       <c r="A57" s="85" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B57" s="40"/>
       <c r="C57" s="40"/>
@@ -17567,14 +17458,14 @@
         <v>43658</v>
       </c>
       <c r="P57" s="35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q57" s="33"/>
       <c r="R57" s="458"/>
     </row>
     <row r="58" spans="1:18" s="42" customFormat="1" ht="22.5">
       <c r="A58" s="85" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B58" s="40"/>
       <c r="C58" s="40"/>
@@ -17584,7 +17475,7 @@
       </c>
       <c r="F58" s="637"/>
       <c r="G58" s="638" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H58" s="646" t="s">
         <v>37</v>
@@ -17604,12 +17495,12 @@
     </row>
     <row r="59" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A59" s="85" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B59" s="40"/>
       <c r="C59" s="40"/>
       <c r="D59" s="459" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E59" s="649" t="s">
         <v>43</v>
@@ -17636,7 +17527,7 @@
     </row>
     <row r="60" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A60" s="85" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B60" s="40"/>
       <c r="C60" s="40"/>
@@ -17646,7 +17537,7 @@
       </c>
       <c r="F60" s="650"/>
       <c r="G60" s="651" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H60" s="652" t="s">
         <v>37</v>
@@ -17666,7 +17557,7 @@
     </row>
     <row r="61" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="85" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B61" s="40"/>
       <c r="C61" s="40"/>
@@ -17697,14 +17588,14 @@
         <v>43658</v>
       </c>
       <c r="P61" s="35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q61" s="33"/>
       <c r="R61" s="464"/>
     </row>
     <row r="62" spans="1:18" s="32" customFormat="1">
       <c r="A62" s="85" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B62" s="40"/>
       <c r="C62" s="40"/>
@@ -17734,7 +17625,7 @@
     </row>
     <row r="63" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A63" s="85" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B63" s="40"/>
       <c r="C63" s="40"/>
@@ -17754,7 +17645,7 @@
         <v>169</v>
       </c>
       <c r="K63" s="463" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L63" s="36"/>
       <c r="M63" s="34"/>
@@ -17765,14 +17656,14 @@
         <v>43658</v>
       </c>
       <c r="P63" s="35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q63" s="33"/>
       <c r="R63" s="464"/>
     </row>
     <row r="64" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A64" s="85" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B64" s="40"/>
       <c r="C64" s="40"/>
@@ -17785,7 +17676,7 @@
       <c r="F64" s="460"/>
       <c r="G64" s="461"/>
       <c r="H64" s="462" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I64" s="462" t="s">
         <v>51</v>
@@ -17805,14 +17696,14 @@
         <v>43658</v>
       </c>
       <c r="P64" s="35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q64" s="33"/>
       <c r="R64" s="464"/>
     </row>
     <row r="65" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A65" s="85" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B65" s="40"/>
       <c r="C65" s="40"/>
@@ -17823,7 +17714,7 @@
       <c r="F65" s="460"/>
       <c r="G65" s="461"/>
       <c r="H65" s="462" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I65" s="462" t="s">
         <v>51</v>
@@ -17843,14 +17734,14 @@
         <v>43658</v>
       </c>
       <c r="P65" s="35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q65" s="33"/>
       <c r="R65" s="464"/>
     </row>
     <row r="66" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A66" s="85" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B66" s="40"/>
       <c r="C66" s="40"/>
@@ -17863,7 +17754,7 @@
         <v>199</v>
       </c>
       <c r="H66" s="652" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I66" s="652" t="s">
         <v>51</v>
@@ -17880,7 +17771,7 @@
     </row>
     <row r="67" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A67" s="85" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B67" s="40"/>
       <c r="C67" s="40"/>
@@ -17889,13 +17780,13 @@
         <v>137</v>
       </c>
       <c r="F67" s="650" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G67" s="651" t="s">
         <v>200</v>
       </c>
       <c r="H67" s="652" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I67" s="652" t="s">
         <v>51</v>
@@ -17912,7 +17803,7 @@
     </row>
     <row r="68" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A68" s="85" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B68" s="40"/>
       <c r="C68" s="40"/>
@@ -17922,10 +17813,10 @@
       </c>
       <c r="F68" s="650"/>
       <c r="G68" s="651" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H68" s="652" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I68" s="652" t="s">
         <v>51</v>
@@ -17942,20 +17833,20 @@
     </row>
     <row r="69" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A69" s="85" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B69" s="40"/>
       <c r="C69" s="40"/>
       <c r="D69" s="40"/>
       <c r="E69" s="653" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F69" s="650"/>
       <c r="G69" s="651" t="s">
         <v>196</v>
       </c>
       <c r="H69" s="652" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I69" s="652" t="s">
         <v>51</v>
@@ -17972,7 +17863,7 @@
     </row>
     <row r="70" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A70" s="85" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B70" s="40"/>
       <c r="C70" s="40"/>
@@ -17985,7 +17876,7 @@
         <v>201</v>
       </c>
       <c r="H70" s="652" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I70" s="652" t="s">
         <v>51</v>
@@ -18002,20 +17893,20 @@
     </row>
     <row r="71" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A71" s="85" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B71" s="40"/>
       <c r="C71" s="40"/>
       <c r="D71" s="41"/>
       <c r="E71" s="653" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F71" s="650"/>
       <c r="G71" s="651" t="s">
         <v>196</v>
       </c>
       <c r="H71" s="652" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I71" s="652" t="s">
         <v>51</v>
@@ -18032,7 +17923,7 @@
     </row>
     <row r="72" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A72" s="85" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B72" s="40"/>
       <c r="C72" s="40"/>
@@ -18040,15 +17931,15 @@
         <v>134</v>
       </c>
       <c r="E72" s="653" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F72" s="650"/>
       <c r="G72" s="651"/>
       <c r="H72" s="652" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I72" s="655" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J72" s="653"/>
       <c r="K72" s="653"/>
@@ -18062,7 +17953,7 @@
     </row>
     <row r="73" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A73" s="85" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B73" s="40"/>
       <c r="C73" s="40"/>
@@ -18075,7 +17966,7 @@
       <c r="F73" s="650"/>
       <c r="G73" s="651"/>
       <c r="H73" s="652" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I73" s="656" t="s">
         <v>55</v>
@@ -18092,18 +17983,18 @@
     </row>
     <row r="74" spans="1:18" s="32" customFormat="1">
       <c r="A74" s="85" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B74" s="40"/>
       <c r="C74" s="40"/>
       <c r="D74" s="60"/>
       <c r="E74" s="653" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F74" s="650"/>
       <c r="G74" s="651"/>
       <c r="H74" s="652" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I74" s="656" t="s">
         <v>55</v>
@@ -18120,7 +18011,7 @@
     </row>
     <row r="75" spans="1:18" s="32" customFormat="1">
       <c r="A75" s="85" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B75" s="40"/>
       <c r="C75" s="40"/>
@@ -18131,7 +18022,7 @@
       <c r="F75" s="650"/>
       <c r="G75" s="651"/>
       <c r="H75" s="652" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I75" s="656" t="s">
         <v>55</v>
@@ -18148,7 +18039,7 @@
     </row>
     <row r="76" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A76" s="85" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B76" s="40"/>
       <c r="C76" s="40"/>
@@ -18161,7 +18052,7 @@
       <c r="F76" s="650"/>
       <c r="G76" s="651"/>
       <c r="H76" s="652" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I76" s="656" t="s">
         <v>55</v>
@@ -18178,7 +18069,7 @@
     </row>
     <row r="77" spans="1:18" s="32" customFormat="1">
       <c r="A77" s="85" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B77" s="40"/>
       <c r="C77" s="40"/>
@@ -18189,7 +18080,7 @@
       <c r="F77" s="650"/>
       <c r="G77" s="651"/>
       <c r="H77" s="652" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I77" s="656" t="s">
         <v>55</v>
@@ -18206,7 +18097,7 @@
     </row>
     <row r="78" spans="1:18" s="32" customFormat="1">
       <c r="A78" s="85" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B78" s="40"/>
       <c r="C78" s="40"/>
@@ -18217,7 +18108,7 @@
       <c r="F78" s="650"/>
       <c r="G78" s="651"/>
       <c r="H78" s="652" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I78" s="656" t="s">
         <v>55</v>
@@ -18234,7 +18125,7 @@
     </row>
     <row r="79" spans="1:18" s="32" customFormat="1">
       <c r="A79" s="85" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B79" s="40"/>
       <c r="C79" s="40"/>
@@ -18245,7 +18136,7 @@
       <c r="F79" s="659"/>
       <c r="G79" s="660"/>
       <c r="H79" s="661" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I79" s="662" t="s">
         <v>55</v>
@@ -18262,7 +18153,7 @@
     </row>
     <row r="80" spans="1:18" s="32" customFormat="1" ht="22.5" hidden="1">
       <c r="A80" s="85" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B80" s="40"/>
       <c r="C80" s="40"/>
@@ -18274,7 +18165,7 @@
         <v>195</v>
       </c>
       <c r="G80" s="667" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H80" s="668" t="s">
         <v>34</v>
@@ -18294,7 +18185,7 @@
     </row>
     <row r="81" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A81" s="85" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B81" s="40"/>
       <c r="C81" s="468" t="s">
@@ -18307,7 +18198,7 @@
       <c r="F81" s="472"/>
       <c r="G81" s="473"/>
       <c r="H81" s="468" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I81" s="468" t="s">
         <v>62</v>
@@ -18327,14 +18218,14 @@
         <v>43658</v>
       </c>
       <c r="P81" s="477" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q81" s="476"/>
       <c r="R81" s="478"/>
     </row>
     <row r="82" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A82" s="85" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B82" s="40"/>
       <c r="C82" s="40"/>
@@ -18347,7 +18238,7 @@
       <c r="F82" s="472"/>
       <c r="G82" s="473"/>
       <c r="H82" s="468" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I82" s="468" t="s">
         <v>62</v>
@@ -18367,25 +18258,25 @@
         <v>43658</v>
       </c>
       <c r="P82" s="477" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q82" s="476"/>
       <c r="R82" s="478"/>
     </row>
     <row r="83" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A83" s="85" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B83" s="40"/>
       <c r="C83" s="40"/>
       <c r="D83" s="479"/>
       <c r="E83" s="480" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F83" s="472"/>
       <c r="G83" s="473"/>
       <c r="H83" s="468" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I83" s="468" t="s">
         <v>62</v>
@@ -18405,14 +18296,14 @@
         <v>43658</v>
       </c>
       <c r="P83" s="477" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q83" s="476"/>
       <c r="R83" s="478"/>
     </row>
     <row r="84" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A84" s="85" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B84" s="40"/>
       <c r="C84" s="40"/>
@@ -18423,7 +18314,7 @@
       <c r="F84" s="472"/>
       <c r="G84" s="473"/>
       <c r="H84" s="468" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I84" s="468" t="s">
         <v>62</v>
@@ -18443,14 +18334,14 @@
         <v>43658</v>
       </c>
       <c r="P84" s="477" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q84" s="476"/>
       <c r="R84" s="478"/>
     </row>
     <row r="85" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A85" s="85" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B85" s="40"/>
       <c r="C85" s="40"/>
@@ -18461,7 +18352,7 @@
       <c r="F85" s="472"/>
       <c r="G85" s="473"/>
       <c r="H85" s="468" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I85" s="468" t="s">
         <v>62</v>
@@ -18481,14 +18372,14 @@
         <v>43658</v>
       </c>
       <c r="P85" s="477" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q85" s="476"/>
       <c r="R85" s="478"/>
     </row>
     <row r="86" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A86" s="85" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B86" s="40"/>
       <c r="C86" s="40"/>
@@ -18499,7 +18390,7 @@
       <c r="F86" s="472"/>
       <c r="G86" s="473"/>
       <c r="H86" s="468" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I86" s="468" t="s">
         <v>62</v>
@@ -18519,29 +18410,29 @@
         <v>43658</v>
       </c>
       <c r="P86" s="477" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q86" s="476"/>
       <c r="R86" s="478"/>
     </row>
     <row r="87" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A87" s="85" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B87" s="40"/>
       <c r="C87" s="40"/>
       <c r="D87" s="672" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E87" s="673"/>
       <c r="F87" s="674" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G87" s="675" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H87" s="669" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I87" s="669" t="s">
         <v>62</v>
@@ -18558,7 +18449,7 @@
     </row>
     <row r="88" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A88" s="85" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B88" s="40"/>
       <c r="C88" s="40"/>
@@ -18567,13 +18458,13 @@
       </c>
       <c r="E88" s="673"/>
       <c r="F88" s="674" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G88" s="675" t="s">
         <v>196</v>
       </c>
       <c r="H88" s="669" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I88" s="669" t="s">
         <v>62</v>
@@ -18590,7 +18481,7 @@
     </row>
     <row r="89" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A89" s="85" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B89" s="40"/>
       <c r="C89" s="40"/>
@@ -18599,13 +18490,13 @@
       </c>
       <c r="E89" s="673"/>
       <c r="F89" s="674" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G89" s="675" t="s">
         <v>196</v>
       </c>
       <c r="H89" s="669" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I89" s="669" t="s">
         <v>62</v>
@@ -18622,7 +18513,7 @@
     </row>
     <row r="90" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A90" s="85" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B90" s="40"/>
       <c r="C90" s="40"/>
@@ -18631,13 +18522,13 @@
       </c>
       <c r="E90" s="673"/>
       <c r="F90" s="674" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G90" s="675" t="s">
         <v>196</v>
       </c>
       <c r="H90" s="669" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I90" s="669" t="s">
         <v>62</v>
@@ -18654,7 +18545,7 @@
     </row>
     <row r="91" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A91" s="85" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B91" s="40"/>
       <c r="C91" s="40"/>
@@ -18663,13 +18554,13 @@
       </c>
       <c r="E91" s="673"/>
       <c r="F91" s="674" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G91" s="675" t="s">
         <v>196</v>
       </c>
       <c r="H91" s="669" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I91" s="669" t="s">
         <v>62</v>
@@ -18686,7 +18577,7 @@
     </row>
     <row r="92" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A92" s="85" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B92" s="40"/>
       <c r="C92" s="40"/>
@@ -18697,7 +18588,7 @@
       <c r="F92" s="472"/>
       <c r="G92" s="473"/>
       <c r="H92" s="468" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I92" s="468" t="s">
         <v>62</v>
@@ -18717,14 +18608,14 @@
         <v>43658</v>
       </c>
       <c r="P92" s="477" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q92" s="476"/>
       <c r="R92" s="478"/>
     </row>
     <row r="93" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A93" s="85" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B93" s="40"/>
       <c r="C93" s="40"/>
@@ -18735,7 +18626,7 @@
       <c r="F93" s="674"/>
       <c r="G93" s="675"/>
       <c r="H93" s="669" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I93" s="669" t="s">
         <v>62</v>
@@ -18752,7 +18643,7 @@
     </row>
     <row r="94" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A94" s="85" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B94" s="40"/>
       <c r="C94" s="40"/>
@@ -18763,7 +18654,7 @@
       <c r="F94" s="674"/>
       <c r="G94" s="675"/>
       <c r="H94" s="669" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I94" s="669" t="s">
         <v>62</v>
@@ -18780,7 +18671,7 @@
     </row>
     <row r="95" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="85" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B95" s="40"/>
       <c r="C95" s="40"/>
@@ -18791,7 +18682,7 @@
       <c r="F95" s="674"/>
       <c r="G95" s="675"/>
       <c r="H95" s="682" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I95" s="682" t="s">
         <v>62</v>
@@ -18808,7 +18699,7 @@
     </row>
     <row r="96" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A96" s="85" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B96" s="40"/>
       <c r="C96" s="40"/>
@@ -18819,7 +18710,7 @@
       <c r="F96" s="674"/>
       <c r="G96" s="675"/>
       <c r="H96" s="669" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I96" s="669" t="s">
         <v>62</v>
@@ -18836,7 +18727,7 @@
     </row>
     <row r="97" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A97" s="85" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B97" s="40"/>
       <c r="C97" s="40"/>
@@ -18845,13 +18736,13 @@
       </c>
       <c r="E97" s="673"/>
       <c r="F97" s="674" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G97" s="675" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H97" s="682" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I97" s="682" t="s">
         <v>62</v>
@@ -18868,18 +18759,18 @@
     </row>
     <row r="98" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A98" s="85" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B98" s="40"/>
       <c r="C98" s="40"/>
       <c r="D98" s="71" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E98" s="410"/>
       <c r="F98" s="674"/>
       <c r="G98" s="675"/>
       <c r="H98" s="669" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I98" s="669" t="s">
         <v>62</v>
@@ -18896,18 +18787,18 @@
     </row>
     <row r="99" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A99" s="85" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B99" s="40"/>
       <c r="C99" s="40"/>
       <c r="D99" s="71" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E99" s="410"/>
       <c r="F99" s="674"/>
       <c r="G99" s="675"/>
       <c r="H99" s="669" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I99" s="669" t="s">
         <v>62</v>
@@ -18924,7 +18815,7 @@
     </row>
     <row r="100" spans="1:18" s="32" customFormat="1" ht="45" customHeight="1">
       <c r="A100" s="483" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B100" s="40"/>
       <c r="C100" s="40"/>
@@ -18935,7 +18826,7 @@
       <c r="F100" s="466"/>
       <c r="G100" s="467"/>
       <c r="H100" s="484" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I100" s="484" t="s">
         <v>62</v>
@@ -18955,29 +18846,29 @@
         <v>43658</v>
       </c>
       <c r="P100" s="489" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q100" s="488"/>
       <c r="R100" s="490"/>
     </row>
     <row r="101" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A101" s="90" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B101" s="40"/>
       <c r="C101" s="40"/>
       <c r="D101" s="71" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E101" s="410"/>
       <c r="F101" s="666" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G101" s="667" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H101" s="60" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I101" s="60" t="s">
         <v>62</v>
@@ -18994,7 +18885,7 @@
     </row>
     <row r="102" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A102" s="483" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B102" s="72"/>
       <c r="C102" s="72"/>
@@ -19003,16 +18894,16 @@
       </c>
       <c r="E102" s="412"/>
       <c r="F102" s="666" t="s">
+        <v>458</v>
+      </c>
+      <c r="G102" s="667" t="s">
         <v>462</v>
       </c>
-      <c r="G102" s="667" t="s">
-        <v>466</v>
-      </c>
       <c r="H102" s="684" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I102" s="684" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J102" s="685"/>
       <c r="K102" s="685"/>
@@ -19201,7 +19092,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"&amp;9- &amp;P -</oddFooter>
   </headerFooter>
@@ -19299,14 +19190,11 @@
       <c r="R8" s="27"/>
     </row>
     <row r="9" spans="1:18" ht="12" thickTop="1">
-      <c r="F9" s="25" t="s">
-        <v>202</v>
-      </c>
       <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>9</v>
@@ -19342,7 +19230,7 @@
         <v>2</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="N10" s="30" t="s">
         <v>5</v>
@@ -19362,7 +19250,7 @@
     </row>
     <row r="11" spans="1:18" s="32" customFormat="1" ht="78.75">
       <c r="A11" s="693" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B11" s="694" t="s">
         <v>85</v>
@@ -19377,7 +19265,7 @@
       <c r="F11" s="696"/>
       <c r="G11" s="696"/>
       <c r="H11" s="694" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I11" s="694" t="s">
         <v>151</v>
@@ -19397,14 +19285,14 @@
         <v>43658</v>
       </c>
       <c r="P11" s="699" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q11" s="699"/>
       <c r="R11" s="699"/>
     </row>
     <row r="12" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A12" s="701" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" s="45"/>
       <c r="C12" s="45"/>
@@ -19415,7 +19303,7 @@
       <c r="F12" s="696"/>
       <c r="G12" s="696"/>
       <c r="H12" s="694" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I12" s="694" t="s">
         <v>87</v>
@@ -19435,14 +19323,14 @@
         <v>43658</v>
       </c>
       <c r="P12" s="704" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q12" s="704"/>
       <c r="R12" s="704"/>
     </row>
     <row r="13" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A13" s="701" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
@@ -19453,7 +19341,7 @@
       <c r="F13" s="696"/>
       <c r="G13" s="696"/>
       <c r="H13" s="694" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I13" s="694" t="s">
         <v>87</v>
@@ -19473,14 +19361,14 @@
         <v>43658</v>
       </c>
       <c r="P13" s="704" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="704"/>
       <c r="R13" s="704"/>
     </row>
     <row r="14" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A14" s="701" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
@@ -19491,7 +19379,7 @@
       <c r="F14" s="715"/>
       <c r="G14" s="715"/>
       <c r="H14" s="716" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I14" s="716" t="s">
         <v>87</v>
@@ -19508,7 +19396,7 @@
     </row>
     <row r="15" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A15" s="701" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
@@ -19521,7 +19409,7 @@
       <c r="F15" s="696"/>
       <c r="G15" s="696"/>
       <c r="H15" s="694" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I15" s="694" t="s">
         <v>87</v>
@@ -19541,14 +19429,14 @@
         <v>43658</v>
       </c>
       <c r="P15" s="704" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q15" s="704"/>
       <c r="R15" s="704"/>
     </row>
     <row r="16" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A16" s="701" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
@@ -19559,7 +19447,7 @@
       <c r="F16" s="715"/>
       <c r="G16" s="715"/>
       <c r="H16" s="716" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I16" s="716" t="s">
         <v>87</v>
@@ -19576,7 +19464,7 @@
     </row>
     <row r="17" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A17" s="701" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
@@ -19587,7 +19475,7 @@
       <c r="F17" s="715"/>
       <c r="G17" s="715"/>
       <c r="H17" s="716" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I17" s="716" t="s">
         <v>87</v>
@@ -19604,7 +19492,7 @@
     </row>
     <row r="18" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A18" s="701" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
@@ -19615,7 +19503,7 @@
       <c r="F18" s="715"/>
       <c r="G18" s="715"/>
       <c r="H18" s="716" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I18" s="716" t="s">
         <v>87</v>
@@ -19632,12 +19520,12 @@
     </row>
     <row r="19" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A19" s="701" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
       <c r="D19" s="46" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E19" s="39" t="s">
         <v>94</v>
@@ -19645,7 +19533,7 @@
       <c r="F19" s="696"/>
       <c r="G19" s="696"/>
       <c r="H19" s="694" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I19" s="694" t="s">
         <v>87</v>
@@ -19665,14 +19553,14 @@
         <v>43658</v>
       </c>
       <c r="P19" s="704" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q19" s="704"/>
       <c r="R19" s="704"/>
     </row>
     <row r="20" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A20" s="701" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
@@ -19680,12 +19568,12 @@
         <v>102</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F20" s="696"/>
       <c r="G20" s="696"/>
       <c r="H20" s="694" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I20" s="694" t="s">
         <v>87</v>
@@ -19705,25 +19593,25 @@
         <v>43658</v>
       </c>
       <c r="P20" s="709" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q20" s="709"/>
       <c r="R20" s="709"/>
     </row>
     <row r="21" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A21" s="701" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
       <c r="D21" s="800" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E21" s="801"/>
       <c r="F21" s="715"/>
       <c r="G21" s="715"/>
       <c r="H21" s="716" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I21" s="716" t="s">
         <v>87</v>
@@ -19740,7 +19628,7 @@
     </row>
     <row r="22" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A22" s="701" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B22" s="45"/>
       <c r="C22" s="721" t="s">
@@ -19753,7 +19641,7 @@
       <c r="F22" s="715"/>
       <c r="G22" s="715"/>
       <c r="H22" s="716" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I22" s="716" t="s">
         <v>87</v>
@@ -19770,7 +19658,7 @@
     </row>
     <row r="23" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A23" s="701" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B23" s="707"/>
       <c r="C23" s="722"/>
@@ -19781,7 +19669,7 @@
       <c r="F23" s="715"/>
       <c r="G23" s="715"/>
       <c r="H23" s="716" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I23" s="716" t="s">
         <v>87</v>
@@ -19798,7 +19686,7 @@
     </row>
     <row r="24" spans="1:18" s="32" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A24" s="723" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B24" s="716" t="s">
         <v>141</v>
@@ -19809,16 +19697,16 @@
       <c r="D24" s="725"/>
       <c r="E24" s="726"/>
       <c r="F24" s="715" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G24" s="727" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H24" s="720" t="s">
         <v>28</v>
       </c>
       <c r="I24" s="655" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="J24" s="683"/>
       <c r="K24" s="683"/>
@@ -19832,25 +19720,25 @@
     </row>
     <row r="25" spans="1:18" s="32" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A25" s="728" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B25" s="729"/>
       <c r="C25" s="730" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D25" s="731"/>
       <c r="E25" s="732"/>
       <c r="F25" s="715" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G25" s="715" t="s">
         <v>196</v>
       </c>
       <c r="H25" s="733" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I25" s="733" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J25" s="685"/>
       <c r="K25" s="685"/>
